--- a/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-18.xlsx
+++ b/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-18.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,10 +422,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>services.Configure&lt;MyConfig&gt;(Configuration);</t>
+          <t>ASP.NET 4.x module</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ASP.NET Core option</t>
         </is>
       </c>
     </row>
@@ -435,12 +444,297 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>In the rest of the app, you can add an input parameter to classes or an @inject directive in templates of type IOptions&lt;MyConfig&gt; to receive the strongly typed configuration IOptions&lt;MyConfig&gt;.Value property will yield the MyConfig value populated from the settings.</t>
+          <t>Default document</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Razor settings. The configuration</t>
+          <t>DefaultDocumentModule</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Default Files Middleware</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Directory browsing</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DirectoryListingModule</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Directory Browsing Middleware</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dynamic compression</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DynamicCompressionModule</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Response Compression Middleware</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Failed requests tracing</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FailedRequestsTracingModule</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ASP.NET Core Logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>File caching</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FileCacheModule</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Response Caching Middleware</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HTTP caching</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>HttpCacheModule</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Response Caching Middleware</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HTTP logging</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HttpLoggingModule</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ASP.NET Core Logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HTTP redirection</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>HttpRedirectionModule</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>URL Rewriting Middleware</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ISAPI filters</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>IsapiFilterModule</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Middleware</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ISAPI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>IsapiModule</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Middleware</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Request filtering</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RequestFilteringModule</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>URL Rewriting Middleware IRule</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>URL rewriting†</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>RewriteModule</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>URL Rewriting Middleware</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Static compression</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>StaticCompressionModule</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Response Compression Middleware</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Static content</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>StaticFileModule</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Static File Middleware</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>URL authorization</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>UrlAuthorizationModule</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ASP.NET Core Identity</t>
         </is>
       </c>
     </row>
